--- a/biology/Botanique/Jardin_botanique_national_du_pays_de_Galles/Jardin_botanique_national_du_pays_de_Galles.xlsx
+++ b/biology/Botanique/Jardin_botanique_national_du_pays_de_Galles/Jardin_botanique_national_du_pays_de_Galles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique national du pays de Galles (en anglais National Botanic Garden of Wales) (NBGW) est situé près de Llanarthney la vallée du Towy dans le Carmarthenshire, au pays de Galles.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,8 +554,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serre à travée
-Le jardin possède la plus grande serre, the Great Glasshouse, à travée du monde, elle reconstitue le paysage méditerranéen[1].
+          <t>Serre à travée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin possède la plus grande serre, the Great Glasshouse, à travée du monde, elle reconstitue le paysage méditerranéen.
 </t>
         </is>
       </c>
@@ -571,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
